--- a/STATUS-DOC-RocketPreconversion.xlsx
+++ b/STATUS-DOC-RocketPreconversion.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Awntika\Project UK_ICS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EA7E4E-16BF-4B3A-836D-1393A28E0857}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19890" windowHeight="8370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,19 +14,19 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Revathi Srikanth</author>
   </authors>
   <commentList>
-    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A6" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Revathi Srikanth:</t>
         </r>
@@ -40,18 +34,10 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>XSL to start on 11-Apr on priority</t>
+XSL to start on 11-Apr on priority</t>
         </r>
       </text>
     </comment>
@@ -60,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>CONTENT TYPE</t>
   </si>
@@ -68,12 +54,21 @@
     <t>TAG-MAPPING</t>
   </si>
   <si>
+    <t>Tag-mapping Delivery Date</t>
+  </si>
+  <si>
     <t>XSL</t>
   </si>
   <si>
+    <t>XSL Delivery Date</t>
+  </si>
+  <si>
     <t>XSPEC</t>
   </si>
   <si>
+    <t>Xspec Delivery Date</t>
+  </si>
+  <si>
     <t>DELIVERY DONE</t>
   </si>
   <si>
@@ -114,22 +109,19 @@
   </si>
   <si>
     <t>CASES- Casesummaries</t>
-  </si>
-  <si>
-    <t>Tag-mapping Delivery Date</t>
-  </si>
-  <si>
-    <t>XSL Delivery Date</t>
-  </si>
-  <si>
-    <t>Xspec Delivery Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,46 +130,173 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,8 +309,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -214,31 +519,320 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <i val="0"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFD7D7D7"/>
         </patternFill>
       </fill>
@@ -249,14 +843,12 @@
         <i val="0"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
+        <patternFill patternType="none"/>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{FB55DF33-B3CD-4593-8AE7-F077B777B3A9}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -264,9 +856,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -553,27 +1142,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="45.28515625" customWidth="1"/>
+    <col min="1" max="1" width="45.2857142857143" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="7" width="23.28515625" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.2857142857143" customWidth="1"/>
+    <col min="4" max="5" width="19.7142857142857" customWidth="1"/>
+    <col min="6" max="7" width="23.2857142857143" customWidth="1"/>
+    <col min="8" max="8" width="26.2857142857143" customWidth="1"/>
+    <col min="9" max="9" width="26.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -584,147 +1173,151 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="5">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3">
         <v>43162</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3">
         <v>43194</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="6" t="s">
-        <v>11</v>
+    <row r="4" spans="1:9">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3">
         <v>43202</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
+        <v>43206</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -734,9 +1327,9 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -748,8 +1341,9 @@
       <c r="I8" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/STATUS-DOC-RocketPreconversion.xlsx
+++ b/STATUS-DOC-RocketPreconversion.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>CONTENT TYPE</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Indexes</t>
+  </si>
+  <si>
+    <t>COMPLETED on 17-Apr-2018</t>
   </si>
   <si>
     <t>Journal</t>
@@ -116,12 +119,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,22 +142,71 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,128 +221,72 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,49 +307,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,73 +469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,49 +481,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,50 +516,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,11 +555,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,7 +616,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -638,130 +634,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -770,9 +766,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1307,14 +1303,22 @@
       <c r="E6" s="3">
         <v>43206</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3">
+        <v>43207</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
@@ -1329,7 +1333,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>

--- a/STATUS-DOC-RocketPreconversion.xlsx
+++ b/STATUS-DOC-RocketPreconversion.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>CONTENT TYPE</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Journal</t>
+  </si>
+  <si>
+    <t>COMPLETED on 19-Apr-2018</t>
   </si>
   <si>
     <t>CASES- Casesummaries</t>
@@ -118,11 +121,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -148,9 +152,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,6 +167,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -172,46 +250,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -221,6 +259,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -229,64 +290,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,156 +311,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -464,30 +492,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,17 +529,50 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,50 +592,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,148 +620,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -765,7 +769,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1142,12 +1146,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
@@ -1323,17 +1327,31 @@
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="C7" s="3">
+        <v>43185</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3">
+        <v>43209</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="3">
+        <v>43209</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>

--- a/STATUS-DOC-RocketPreconversion.xlsx
+++ b/STATUS-DOC-RocketPreconversion.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>CONTENT TYPE</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>COMPLETED on 19-Apr-2018</t>
+  </si>
+  <si>
+    <t>CASES-Composite_Cases</t>
   </si>
   <si>
     <t>CASES- Casesummaries</t>
@@ -124,9 +127,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -153,7 +156,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,7 +193,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,29 +207,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -220,23 +215,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,6 +238,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -257,44 +298,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -311,31 +314,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,151 +482,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,11 +523,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,8 +541,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,6 +571,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -577,17 +597,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,162 +620,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1148,13 +1151,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="45.2857142857143" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
@@ -1353,14 +1356,23 @@
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3">
+        <v>43210</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
